--- a/tests/fixtures/2024-2025-AFG Attacks on Health Care Incident Data.xlsx
+++ b/tests/fixtures/2024-2025-AFG Attacks on Health Care Incident Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Open Space</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>NoInformation</t>
@@ -886,8 +892,8 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>1</v>
+      <c r="V2" t="s">
+        <v>85</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -914,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -996,8 +1002,8 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="V3" t="s">
+        <v>86</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1024,22 +1030,22 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1106,8 +1112,8 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="V4" t="s">
+        <v>86</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1134,22 +1140,22 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1216,8 +1222,8 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="V5" t="s">
+        <v>86</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1244,22 +1250,22 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1326,8 +1332,8 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>1</v>
+      <c r="V6" t="s">
+        <v>85</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1354,22 +1360,22 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1436,8 +1442,8 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="V7" t="s">
+        <v>86</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1464,22 +1470,22 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1546,8 +1552,8 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
+      <c r="V8" t="s">
+        <v>86</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1574,22 +1580,22 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1656,8 +1662,8 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="V9" t="s">
+        <v>86</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1684,22 +1690,22 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1766,8 +1772,8 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
+      <c r="V10" t="s">
+        <v>86</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1782,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1794,22 +1800,22 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1876,8 +1882,8 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
+      <c r="V11" t="s">
+        <v>86</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1904,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1986,8 +1992,8 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
+      <c r="V12" t="s">
+        <v>86</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2014,22 +2020,22 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -2096,8 +2102,8 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
+      <c r="V13" t="s">
+        <v>86</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2124,22 +2130,22 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -2206,8 +2212,8 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
+      <c r="V14" t="s">
+        <v>86</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2234,22 +2240,22 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -2316,8 +2322,8 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>0</v>
+      <c r="V15" t="s">
+        <v>86</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2344,22 +2350,22 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -2426,8 +2432,8 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
+      <c r="V16" t="s">
+        <v>86</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2454,22 +2460,22 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2536,8 +2542,8 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
+      <c r="V17" t="s">
+        <v>86</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2564,22 +2570,22 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2646,8 +2652,8 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
+      <c r="V18" t="s">
+        <v>86</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2662,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2674,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2756,8 +2762,8 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
+      <c r="V19" t="s">
+        <v>86</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2772,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2784,22 +2790,22 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2866,8 +2872,8 @@
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0</v>
+      <c r="V20" t="s">
+        <v>86</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2894,22 +2900,22 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2976,8 +2982,8 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
+      <c r="V21" t="s">
+        <v>86</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -3004,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3086,8 +3092,8 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>0</v>
+      <c r="V22" t="s">
+        <v>86</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3102,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="AA22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3114,22 +3120,22 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3196,8 +3202,8 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
+      <c r="V23" t="s">
+        <v>86</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3212,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="AA23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3224,22 +3230,22 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3306,8 +3312,8 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
+      <c r="V24" t="s">
+        <v>86</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3334,22 +3340,22 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3416,8 +3422,8 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
+      <c r="V25" t="s">
+        <v>86</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3432,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="AA25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3444,22 +3450,22 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3526,8 +3532,8 @@
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="V26">
-        <v>0</v>
+      <c r="V26" t="s">
+        <v>86</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3542,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3554,22 +3560,22 @@
         <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3636,8 +3642,8 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
+      <c r="V27" t="s">
+        <v>86</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -3664,22 +3670,22 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3746,8 +3752,8 @@
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
+      <c r="V28" t="s">
+        <v>86</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3762,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3774,22 +3780,22 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3856,8 +3862,8 @@
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29">
-        <v>0</v>
+      <c r="V29" t="s">
+        <v>86</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3872,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3884,22 +3890,22 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
